--- a/FantaSoccer/MyModule/Bundesliga/xGA_tot_all_14.xlsx
+++ b/FantaSoccer/MyModule/Bundesliga/xGA_tot_all_14.xlsx
@@ -581,13 +581,13 @@
         <v>3.89174</v>
       </c>
       <c r="F3">
-        <v>6.28868</v>
+        <v>6.288679999999999</v>
       </c>
       <c r="G3">
         <v>8.91778</v>
       </c>
       <c r="H3">
-        <v>9.92919</v>
+        <v>9.929189999999998</v>
       </c>
       <c r="I3">
         <v>12.44601</v>
@@ -634,7 +634,7 @@
         <v>3.838357</v>
       </c>
       <c r="H4">
-        <v>5.021196999999999</v>
+        <v>5.021197</v>
       </c>
       <c r="I4">
         <v>8.042047</v>
@@ -731,16 +731,16 @@
         <v>3.772537</v>
       </c>
       <c r="I6">
-        <v>5.108747</v>
+        <v>5.108746999999999</v>
       </c>
       <c r="J6">
         <v>6.316357</v>
       </c>
       <c r="K6">
-        <v>7.908887</v>
+        <v>7.908886999999999</v>
       </c>
       <c r="L6">
-        <v>8.756709000000001</v>
+        <v>8.756708999999999</v>
       </c>
       <c r="M6">
         <v>11.833479</v>
@@ -819,10 +819,10 @@
         <v>4.365366</v>
       </c>
       <c r="G8">
-        <v>8.173596000000002</v>
+        <v>8.173596</v>
       </c>
       <c r="H8">
-        <v>8.907248000000001</v>
+        <v>8.907247999999999</v>
       </c>
       <c r="I8">
         <v>10.993048</v>
@@ -916,7 +916,7 @@
         <v>8.347951999999999</v>
       </c>
       <c r="H10">
-        <v>9.688832</v>
+        <v>9.688832000000001</v>
       </c>
       <c r="I10">
         <v>12.120952</v>
@@ -954,10 +954,10 @@
         <v>2.117002</v>
       </c>
       <c r="E11">
-        <v>6.110111999999999</v>
+        <v>6.110112</v>
       </c>
       <c r="F11">
-        <v>7.518331999999999</v>
+        <v>7.518332</v>
       </c>
       <c r="G11">
         <v>10.203562</v>
@@ -1007,7 +1007,7 @@
         <v>9.00285</v>
       </c>
       <c r="G12">
-        <v>9.232446000000001</v>
+        <v>9.232445999999999</v>
       </c>
       <c r="H12">
         <v>12.894736</v>
@@ -1104,13 +1104,13 @@
         <v>3.552297</v>
       </c>
       <c r="H14">
-        <v>4.167584000000001</v>
+        <v>4.167584</v>
       </c>
       <c r="I14">
-        <v>4.744736000000001</v>
+        <v>4.744736</v>
       </c>
       <c r="J14">
-        <v>5.633482000000001</v>
+        <v>5.633482</v>
       </c>
       <c r="K14">
         <v>7.396611999999999</v>
@@ -1233,7 +1233,7 @@
         <v>2.07011</v>
       </c>
       <c r="D17">
-        <v>3.114949999999999</v>
+        <v>3.11495</v>
       </c>
       <c r="E17">
         <v>4.81267</v>
@@ -1242,10 +1242,10 @@
         <v>6.24072</v>
       </c>
       <c r="G17">
-        <v>8.615879999999999</v>
+        <v>8.615880000000001</v>
       </c>
       <c r="H17">
-        <v>9.342538999999999</v>
+        <v>9.342539</v>
       </c>
       <c r="I17">
         <v>12.831849</v>
